--- a/Squads/I1/Monza_Frosinone_squad.xlsx
+++ b/Squads/I1/Monza_Frosinone_squad.xlsx
@@ -90,187 +90,187 @@
     <t>Aer%</t>
   </si>
   <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>1121</t>
-  </si>
-  <si>
-    <t>1813</t>
-  </si>
-  <si>
-    <t>287</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>394</t>
-  </si>
-  <si>
-    <t>1497</t>
-  </si>
-  <si>
-    <t>1556</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>576</t>
-  </si>
-  <si>
-    <t>853</t>
+    <t>211</t>
+  </si>
+  <si>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>1831</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>1511</t>
+  </si>
+  <si>
+    <t>1572</t>
+  </si>
+  <si>
+    <t>2126</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>582</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>1885</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>1319</t>
+  </si>
+  <si>
+    <t>1693</t>
+  </si>
+  <si>
+    <t>1957</t>
+  </si>
+  <si>
+    <t>2073</t>
+  </si>
+  <si>
+    <t>2330</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>2661</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>700</t>
   </si>
   <si>
     <t>1952</t>
   </si>
   <si>
-    <t>1866</t>
-  </si>
-  <si>
-    <t>518</t>
-  </si>
-  <si>
-    <t>1307</t>
-  </si>
-  <si>
-    <t>1676</t>
-  </si>
-  <si>
-    <t>1938</t>
-  </si>
-  <si>
-    <t>2052</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2476</t>
-  </si>
-  <si>
-    <t>2636</t>
-  </si>
-  <si>
-    <t>505</t>
-  </si>
-  <si>
-    <t>693</t>
-  </si>
-  <si>
-    <t>1933</t>
-  </si>
-  <si>
-    <t>2511</t>
-  </si>
-  <si>
-    <t>447</t>
-  </si>
-  <si>
-    <t>889</t>
-  </si>
-  <si>
-    <t>1025</t>
-  </si>
-  <si>
-    <t>1159</t>
+    <t>2535</t>
+  </si>
+  <si>
+    <t>452</t>
+  </si>
+  <si>
+    <t>896</t>
+  </si>
+  <si>
+    <t>1033</t>
+  </si>
+  <si>
+    <t>1168</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>524</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>887</t>
+  </si>
+  <si>
+    <t>902</t>
+  </si>
+  <si>
+    <t>1102</t>
+  </si>
+  <si>
+    <t>1388</t>
+  </si>
+  <si>
+    <t>1441</t>
+  </si>
+  <si>
+    <t>1506</t>
+  </si>
+  <si>
+    <t>1674</t>
+  </si>
+  <si>
+    <t>281</t>
   </si>
   <si>
     <t>423</t>
   </si>
   <si>
-    <t>424</t>
-  </si>
-  <si>
-    <t>519</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
-    <t>353</t>
-  </si>
-  <si>
-    <t>467</t>
-  </si>
-  <si>
-    <t>880</t>
-  </si>
-  <si>
-    <t>895</t>
-  </si>
-  <si>
-    <t>1094</t>
-  </si>
-  <si>
-    <t>1376</t>
-  </si>
-  <si>
-    <t>1429</t>
-  </si>
-  <si>
-    <t>1492</t>
-  </si>
-  <si>
-    <t>1659</t>
-  </si>
-  <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>419</t>
-  </si>
-  <si>
-    <t>634</t>
-  </si>
-  <si>
-    <t>922</t>
-  </si>
-  <si>
-    <t>1467</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2623</t>
-  </si>
-  <si>
-    <t>315</t>
-  </si>
-  <si>
-    <t>322</t>
-  </si>
-  <si>
-    <t>416</t>
-  </si>
-  <si>
-    <t>482</t>
-  </si>
-  <si>
-    <t>573</t>
-  </si>
-  <si>
-    <t>1304</t>
-  </si>
-  <si>
-    <t>1426</t>
-  </si>
-  <si>
-    <t>2358</t>
-  </si>
-  <si>
-    <t>2457</t>
+    <t>641</t>
+  </si>
+  <si>
+    <t>929</t>
+  </si>
+  <si>
+    <t>1480</t>
+  </si>
+  <si>
+    <t>1514</t>
+  </si>
+  <si>
+    <t>2324</t>
+  </si>
+  <si>
+    <t>2648</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>487</t>
+  </si>
+  <si>
+    <t>578</t>
+  </si>
+  <si>
+    <t>1316</t>
+  </si>
+  <si>
+    <t>1438</t>
+  </si>
+  <si>
+    <t>2382</t>
+  </si>
+  <si>
+    <t>2481</t>
   </si>
   <si>
     <t>Enzo Barrenechea</t>
@@ -282,12 +282,12 @@
     <t>Caleb Okoli</t>
   </si>
   <si>
+    <t>Warren Bondo</t>
+  </si>
+  <si>
     <t>Samuele Birindelli</t>
   </si>
   <si>
-    <t>Warren Bondo</t>
-  </si>
-  <si>
     <t>Luca Caldirola</t>
   </si>
   <si>
@@ -546,184 +546,184 @@
     <t>it Serie A</t>
   </si>
   <si>
-    <t>22-351</t>
-  </si>
-  <si>
-    <t>32-066</t>
-  </si>
-  <si>
-    <t>22-299</t>
-  </si>
-  <si>
-    <t>24-293</t>
-  </si>
-  <si>
-    <t>20-235</t>
-  </si>
-  <si>
-    <t>33-096</t>
-  </si>
-  <si>
-    <t>30-250</t>
-  </si>
-  <si>
-    <t>28-174</t>
-  </si>
-  <si>
-    <t>34-088</t>
-  </si>
-  <si>
-    <t>31-209</t>
-  </si>
-  <si>
-    <t>35-241</t>
-  </si>
-  <si>
-    <t>30-030</t>
-  </si>
-  <si>
-    <t>27-016</t>
-  </si>
-  <si>
-    <t>23-025</t>
-  </si>
-  <si>
-    <t>22-060</t>
-  </si>
-  <si>
-    <t>28-092</t>
-  </si>
-  <si>
-    <t>26-005</t>
-  </si>
-  <si>
-    <t>26-106</t>
-  </si>
-  <si>
-    <t>22-109</t>
-  </si>
-  <si>
-    <t>21-022</t>
-  </si>
-  <si>
-    <t>25-152</t>
-  </si>
-  <si>
-    <t>24-323</t>
-  </si>
-  <si>
-    <t>29-088</t>
-  </si>
-  <si>
-    <t>34-092</t>
-  </si>
-  <si>
-    <t>27-267</t>
-  </si>
-  <si>
-    <t>20-073</t>
-  </si>
-  <si>
-    <t>25-150</t>
-  </si>
-  <si>
-    <t>27-205</t>
-  </si>
-  <si>
-    <t>26-115</t>
-  </si>
-  <si>
-    <t>22-104</t>
-  </si>
-  <si>
-    <t>23-093</t>
-  </si>
-  <si>
-    <t>19-063</t>
-  </si>
-  <si>
-    <t>24-362</t>
-  </si>
-  <si>
-    <t>29-012</t>
-  </si>
-  <si>
-    <t>32-274</t>
-  </si>
-  <si>
-    <t>24-108</t>
-  </si>
-  <si>
-    <t>25-124</t>
-  </si>
-  <si>
-    <t>30-086</t>
-  </si>
-  <si>
-    <t>21-244</t>
-  </si>
-  <si>
-    <t>18-148</t>
-  </si>
-  <si>
-    <t>26-268</t>
-  </si>
-  <si>
-    <t>20-120</t>
-  </si>
-  <si>
-    <t>26-042</t>
-  </si>
-  <si>
-    <t>22-140</t>
-  </si>
-  <si>
-    <t>24-030</t>
-  </si>
-  <si>
-    <t>30-282</t>
-  </si>
-  <si>
-    <t>26-285</t>
-  </si>
-  <si>
-    <t>36-082</t>
-  </si>
-  <si>
-    <t>22-209</t>
-  </si>
-  <si>
-    <t>28-357</t>
-  </si>
-  <si>
-    <t>22-034</t>
-  </si>
-  <si>
-    <t>25-065</t>
-  </si>
-  <si>
-    <t>27-354</t>
-  </si>
-  <si>
-    <t>24-058</t>
-  </si>
-  <si>
-    <t>29-354</t>
-  </si>
-  <si>
-    <t>22-302</t>
-  </si>
-  <si>
-    <t>21-090</t>
-  </si>
-  <si>
-    <t>27-363</t>
-  </si>
-  <si>
-    <t>29-318</t>
-  </si>
-  <si>
-    <t>22-245</t>
+    <t>22-363</t>
+  </si>
+  <si>
+    <t>32-078</t>
+  </si>
+  <si>
+    <t>22-311</t>
+  </si>
+  <si>
+    <t>20-247</t>
+  </si>
+  <si>
+    <t>24-305</t>
+  </si>
+  <si>
+    <t>33-108</t>
+  </si>
+  <si>
+    <t>30-262</t>
+  </si>
+  <si>
+    <t>28-186</t>
+  </si>
+  <si>
+    <t>34-100</t>
+  </si>
+  <si>
+    <t>31-221</t>
+  </si>
+  <si>
+    <t>35-253</t>
+  </si>
+  <si>
+    <t>30-042</t>
+  </si>
+  <si>
+    <t>27-028</t>
+  </si>
+  <si>
+    <t>23-037</t>
+  </si>
+  <si>
+    <t>22-072</t>
+  </si>
+  <si>
+    <t>28-104</t>
+  </si>
+  <si>
+    <t>26-017</t>
+  </si>
+  <si>
+    <t>26-118</t>
+  </si>
+  <si>
+    <t>22-121</t>
+  </si>
+  <si>
+    <t>21-034</t>
+  </si>
+  <si>
+    <t>25-164</t>
+  </si>
+  <si>
+    <t>24-335</t>
+  </si>
+  <si>
+    <t>29-100</t>
+  </si>
+  <si>
+    <t>34-104</t>
+  </si>
+  <si>
+    <t>27-279</t>
+  </si>
+  <si>
+    <t>20-085</t>
+  </si>
+  <si>
+    <t>25-162</t>
+  </si>
+  <si>
+    <t>27-217</t>
+  </si>
+  <si>
+    <t>26-127</t>
+  </si>
+  <si>
+    <t>22-116</t>
+  </si>
+  <si>
+    <t>23-105</t>
+  </si>
+  <si>
+    <t>19-075</t>
+  </si>
+  <si>
+    <t>25-008</t>
+  </si>
+  <si>
+    <t>29-024</t>
+  </si>
+  <si>
+    <t>32-286</t>
+  </si>
+  <si>
+    <t>24-120</t>
+  </si>
+  <si>
+    <t>25-136</t>
+  </si>
+  <si>
+    <t>30-098</t>
+  </si>
+  <si>
+    <t>21-256</t>
+  </si>
+  <si>
+    <t>18-160</t>
+  </si>
+  <si>
+    <t>26-280</t>
+  </si>
+  <si>
+    <t>20-132</t>
+  </si>
+  <si>
+    <t>26-054</t>
+  </si>
+  <si>
+    <t>22-152</t>
+  </si>
+  <si>
+    <t>24-042</t>
+  </si>
+  <si>
+    <t>30-294</t>
+  </si>
+  <si>
+    <t>26-297</t>
+  </si>
+  <si>
+    <t>36-094</t>
+  </si>
+  <si>
+    <t>22-221</t>
+  </si>
+  <si>
+    <t>29-003</t>
+  </si>
+  <si>
+    <t>22-046</t>
+  </si>
+  <si>
+    <t>25-077</t>
+  </si>
+  <si>
+    <t>28-000</t>
+  </si>
+  <si>
+    <t>24-070</t>
+  </si>
+  <si>
+    <t>30-000</t>
+  </si>
+  <si>
+    <t>22-314</t>
+  </si>
+  <si>
+    <t>21-102</t>
+  </si>
+  <si>
+    <t>28-009</t>
+  </si>
+  <si>
+    <t>29-330</t>
+  </si>
+  <si>
+    <t>22-257</t>
   </si>
   <si>
     <t>2001</t>
@@ -732,10 +732,10 @@
     <t>1992</t>
   </si>
   <si>
+    <t>2003</t>
+  </si>
+  <si>
     <t>1999</t>
-  </si>
-  <si>
-    <t>2003</t>
   </si>
   <si>
     <t>1991</t>
@@ -980,7 +980,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>221.0</v>
+        <v>224.0</v>
       </c>
       <c r="C2" t="s">
         <v>86</v>
@@ -1060,7 +1060,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>1186.0</v>
+        <v>1194.0</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
@@ -1084,7 +1084,7 @@
         <v>238</v>
       </c>
       <c r="J3" t="n">
-        <v>15.8</v>
+        <v>16.8</v>
       </c>
       <c r="K3" t="n">
         <v>9.0</v>
@@ -1096,10 +1096,10 @@
         <v>0.0</v>
       </c>
       <c r="N3" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="O3" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="P3" t="n">
         <v>1.0</v>
@@ -1108,10 +1108,10 @@
         <v>3.0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="S3" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="T3" t="n">
         <v>0.0</v>
@@ -1123,16 +1123,16 @@
         <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>74.0</v>
+        <v>76.0</v>
       </c>
       <c r="X3" t="n">
         <v>15.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>46.9</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="4">
@@ -1140,7 +1140,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>1916.0</v>
+        <v>1934.0</v>
       </c>
       <c r="C4" t="s">
         <v>88</v>
@@ -1164,7 +1164,7 @@
         <v>237</v>
       </c>
       <c r="J4" t="n">
-        <v>29.5</v>
+        <v>30.4</v>
       </c>
       <c r="K4" t="n">
         <v>9.0</v>
@@ -1176,7 +1176,7 @@
         <v>0.0</v>
       </c>
       <c r="N4" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="O4" t="n">
         <v>22.0</v>
@@ -1188,7 +1188,7 @@
         <v>2.0</v>
       </c>
       <c r="R4" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="S4" t="n">
         <v>31.0</v>
@@ -1203,16 +1203,16 @@
         <v>0.0</v>
       </c>
       <c r="W4" t="n">
-        <v>155.0</v>
+        <v>158.0</v>
       </c>
       <c r="X4" t="n">
         <v>72.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.0</v>
+        <v>55.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>58.1</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="5">
@@ -1220,16 +1220,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>309.0</v>
+        <v>338.0</v>
       </c>
       <c r="C5" t="s">
         <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F5" t="s">
         <v>175</v>
@@ -1244,55 +1244,55 @@
         <v>239</v>
       </c>
       <c r="J5" t="n">
-        <v>20.1</v>
+        <v>15.4</v>
       </c>
       <c r="K5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.0</v>
       </c>
-      <c r="L5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>6.0</v>
-      </c>
       <c r="Z5" t="n">
-        <v>57.1</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="6">
@@ -1300,16 +1300,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>335.0</v>
+        <v>312.0</v>
       </c>
       <c r="C6" t="s">
         <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F6" t="s">
         <v>175</v>
@@ -1324,7 +1324,7 @@
         <v>240</v>
       </c>
       <c r="J6" t="n">
-        <v>14.4</v>
+        <v>20.8</v>
       </c>
       <c r="K6" t="n">
         <v>7.0</v>
@@ -1336,43 +1336,43 @@
         <v>0.0</v>
       </c>
       <c r="N6" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="O6" t="n">
-        <v>19.0</v>
+        <v>32.0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.0</v>
+        <v>46.0</v>
       </c>
       <c r="R6" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>6.0</v>
       </c>
-      <c r="S6" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>7.0</v>
-      </c>
       <c r="Z6" t="n">
-        <v>56.3</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="7">
@@ -1380,7 +1380,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>422.0</v>
+        <v>426.0</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
@@ -1404,7 +1404,7 @@
         <v>241</v>
       </c>
       <c r="J7" t="n">
-        <v>23.3</v>
+        <v>23.8</v>
       </c>
       <c r="K7" t="n">
         <v>7.0</v>
@@ -1416,7 +1416,7 @@
         <v>1.0</v>
       </c>
       <c r="N7" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="O7" t="n">
         <v>17.0</v>
@@ -1431,7 +1431,7 @@
         <v>29.0</v>
       </c>
       <c r="S7" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="T7" t="n">
         <v>0.0</v>
@@ -1443,7 +1443,7 @@
         <v>0.0</v>
       </c>
       <c r="W7" t="n">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="X7" t="n">
         <v>30.0</v>
@@ -1460,7 +1460,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>1584.0</v>
+        <v>1598.0</v>
       </c>
       <c r="C8" t="s">
         <v>92</v>
@@ -1484,7 +1484,7 @@
         <v>242</v>
       </c>
       <c r="J8" t="n">
-        <v>26.3</v>
+        <v>27.1</v>
       </c>
       <c r="K8" t="n">
         <v>7.0</v>
@@ -1508,10 +1508,10 @@
         <v>4.0</v>
       </c>
       <c r="R8" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="S8" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="T8" t="n">
         <v>0.0</v>
@@ -1523,16 +1523,16 @@
         <v>0.0</v>
       </c>
       <c r="W8" t="n">
-        <v>90.0</v>
+        <v>91.0</v>
       </c>
       <c r="X8" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>64.8</v>
+        <v>64.9</v>
       </c>
     </row>
     <row r="9">
@@ -1540,7 +1540,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>1649.0</v>
+        <v>1665.0</v>
       </c>
       <c r="C9" t="s">
         <v>93</v>
@@ -1564,7 +1564,7 @@
         <v>243</v>
       </c>
       <c r="J9" t="n">
-        <v>24.1</v>
+        <v>24.6</v>
       </c>
       <c r="K9" t="n">
         <v>6.0</v>
@@ -1585,10 +1585,10 @@
         <v>1.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="R9" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="S9" t="n">
         <v>23.0</v>
@@ -1603,16 +1603,16 @@
         <v>0.0</v>
       </c>
       <c r="W9" t="n">
-        <v>126.0</v>
+        <v>128.0</v>
       </c>
       <c r="X9" t="n">
         <v>41.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>52.6</v>
+        <v>51.9</v>
       </c>
     </row>
     <row r="10">
@@ -1620,7 +1620,7 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>2220.0</v>
+        <v>2242.0</v>
       </c>
       <c r="C10" t="s">
         <v>94</v>
@@ -1700,7 +1700,7 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="C11" t="s">
         <v>95</v>
@@ -1724,7 +1724,7 @@
         <v>238</v>
       </c>
       <c r="J11" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="K11" t="n">
         <v>5.0</v>
@@ -1736,22 +1736,22 @@
         <v>0.0</v>
       </c>
       <c r="N11" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="O11" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="P11" t="n">
         <v>0.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R11" t="n">
         <v>12.0</v>
       </c>
       <c r="S11" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="T11" t="n">
         <v>0.0</v>
@@ -1780,7 +1780,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>610.0</v>
+        <v>616.0</v>
       </c>
       <c r="C12" t="s">
         <v>96</v>
@@ -1804,7 +1804,7 @@
         <v>245</v>
       </c>
       <c r="J12" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="K12" t="n">
         <v>5.0</v>
@@ -1860,7 +1860,7 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>908.0</v>
+        <v>915.0</v>
       </c>
       <c r="C13" t="s">
         <v>97</v>
@@ -1940,7 +1940,7 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>2061.0</v>
+        <v>2082.0</v>
       </c>
       <c r="C14" t="s">
         <v>98</v>
@@ -1964,7 +1964,7 @@
         <v>247</v>
       </c>
       <c r="J14" t="n">
-        <v>32.8</v>
+        <v>33.8</v>
       </c>
       <c r="K14" t="n">
         <v>5.0</v>
@@ -1988,7 +1988,7 @@
         <v>17.0</v>
       </c>
       <c r="R14" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="S14" t="n">
         <v>23.0</v>
@@ -2003,16 +2003,16 @@
         <v>0.0</v>
       </c>
       <c r="W14" t="n">
-        <v>173.0</v>
+        <v>176.0</v>
       </c>
       <c r="X14" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="Y14" t="n">
         <v>29.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>51.7</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="15">
@@ -2020,7 +2020,7 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>1970.0</v>
+        <v>1989.0</v>
       </c>
       <c r="C15" t="s">
         <v>99</v>
@@ -2100,7 +2100,7 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>549.0</v>
+        <v>554.0</v>
       </c>
       <c r="C16" t="s">
         <v>100</v>
@@ -2180,7 +2180,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>1383.0</v>
+        <v>1395.0</v>
       </c>
       <c r="C17" t="s">
         <v>101</v>
@@ -2204,7 +2204,7 @@
         <v>249</v>
       </c>
       <c r="J17" t="n">
-        <v>17.8</v>
+        <v>18.3</v>
       </c>
       <c r="K17" t="n">
         <v>3.0</v>
@@ -2225,10 +2225,10 @@
         <v>2.0</v>
       </c>
       <c r="Q17" t="n">
-        <v>78.0</v>
+        <v>79.0</v>
       </c>
       <c r="R17" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="S17" t="n">
         <v>9.0</v>
@@ -2243,16 +2243,16 @@
         <v>0.0</v>
       </c>
       <c r="W17" t="n">
-        <v>66.0</v>
+        <v>70.0</v>
       </c>
       <c r="X17" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="Y17" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>39.3</v>
+        <v>38.7</v>
       </c>
     </row>
     <row r="18">
@@ -2260,7 +2260,7 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>1776.0</v>
+        <v>1793.0</v>
       </c>
       <c r="C18" t="s">
         <v>102</v>
@@ -2284,7 +2284,7 @@
         <v>250</v>
       </c>
       <c r="J18" t="n">
-        <v>20.3</v>
+        <v>21.0</v>
       </c>
       <c r="K18" t="n">
         <v>3.0</v>
@@ -2296,7 +2296,7 @@
         <v>0.0</v>
       </c>
       <c r="N18" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="O18" t="n">
         <v>24.0</v>
@@ -2305,7 +2305,7 @@
         <v>6.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>76.0</v>
+        <v>79.0</v>
       </c>
       <c r="R18" t="n">
         <v>2.0</v>
@@ -2323,16 +2323,16 @@
         <v>0.0</v>
       </c>
       <c r="W18" t="n">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
       <c r="X18" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="Y18" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="Z18" t="n">
-        <v>43.9</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="19">
@@ -2340,7 +2340,7 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>2047.0</v>
+        <v>2066.0</v>
       </c>
       <c r="C19" t="s">
         <v>103</v>
@@ -2364,7 +2364,7 @@
         <v>250</v>
       </c>
       <c r="J19" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="K19" t="n">
         <v>3.0</v>
@@ -2385,13 +2385,13 @@
         <v>1.0</v>
       </c>
       <c r="Q19" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="R19" t="n">
         <v>4.0</v>
       </c>
       <c r="S19" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="T19" t="n">
         <v>0.0</v>
@@ -2403,16 +2403,16 @@
         <v>0.0</v>
       </c>
       <c r="W19" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="X19" t="n">
         <v>4.0</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z19" t="n">
-        <v>44.4</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="20">
@@ -2420,7 +2420,7 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>2166.0</v>
+        <v>2187.0</v>
       </c>
       <c r="C20" t="s">
         <v>104</v>
@@ -2444,7 +2444,7 @@
         <v>248</v>
       </c>
       <c r="J20" t="n">
-        <v>10.9</v>
+        <v>11.6</v>
       </c>
       <c r="K20" t="n">
         <v>3.0</v>
@@ -2456,7 +2456,7 @@
         <v>0.0</v>
       </c>
       <c r="N20" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="O20" t="n">
         <v>9.0</v>
@@ -2465,7 +2465,7 @@
         <v>1.0</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="R20" t="n">
         <v>10.0</v>
@@ -2483,16 +2483,16 @@
         <v>0.0</v>
       </c>
       <c r="W20" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="X20" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="Y20" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="Z20" t="n">
-        <v>29.2</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="21">
@@ -2500,7 +2500,7 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>2432.0</v>
+        <v>2455.0</v>
       </c>
       <c r="C21" t="s">
         <v>105</v>
@@ -2521,10 +2521,10 @@
         <v>196</v>
       </c>
       <c r="I21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J21" t="n">
-        <v>31.8</v>
+        <v>32.8</v>
       </c>
       <c r="K21" t="n">
         <v>3.0</v>
@@ -2539,19 +2539,19 @@
         <v>17.0</v>
       </c>
       <c r="O21" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="P21" t="n">
         <v>1.0</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.0</v>
+        <v>92.0</v>
       </c>
       <c r="R21" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="S21" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="T21" t="n">
         <v>0.0</v>
@@ -2563,16 +2563,16 @@
         <v>1.0</v>
       </c>
       <c r="W21" t="n">
-        <v>164.0</v>
+        <v>166.0</v>
       </c>
       <c r="X21" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="Y21" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="Z21" t="n">
-        <v>19.6</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="22">
@@ -2580,7 +2580,7 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>2608.0</v>
+        <v>2632.0</v>
       </c>
       <c r="C22" t="s">
         <v>106</v>
@@ -2604,7 +2604,7 @@
         <v>250</v>
       </c>
       <c r="J22" t="n">
-        <v>10.1</v>
+        <v>11.1</v>
       </c>
       <c r="K22" t="n">
         <v>3.0</v>
@@ -2625,13 +2625,13 @@
         <v>0.0</v>
       </c>
       <c r="Q22" t="n">
-        <v>58.0</v>
+        <v>62.0</v>
       </c>
       <c r="R22" t="n">
         <v>7.0</v>
       </c>
       <c r="S22" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="T22" t="n">
         <v>1.0</v>
@@ -2643,13 +2643,13 @@
         <v>0.0</v>
       </c>
       <c r="W22" t="n">
-        <v>50.0</v>
+        <v>54.0</v>
       </c>
       <c r="X22" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z22" t="n">
         <v>50.0</v>
@@ -2660,7 +2660,7 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>2783.0</v>
+        <v>2808.0</v>
       </c>
       <c r="C23" t="s">
         <v>107</v>
@@ -2681,10 +2681,10 @@
         <v>198</v>
       </c>
       <c r="I23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J23" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K23" t="n">
         <v>3.0</v>
@@ -2705,7 +2705,7 @@
         <v>0.0</v>
       </c>
       <c r="Q23" t="n">
-        <v>59.0</v>
+        <v>63.0</v>
       </c>
       <c r="R23" t="n">
         <v>4.0</v>
@@ -2723,7 +2723,7 @@
         <v>0.0</v>
       </c>
       <c r="W23" t="n">
-        <v>41.0</v>
+        <v>46.0</v>
       </c>
       <c r="X23" t="n">
         <v>9.0</v>
@@ -2740,7 +2740,7 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>536.0</v>
+        <v>541.0</v>
       </c>
       <c r="C24" t="s">
         <v>108</v>
@@ -2820,7 +2820,7 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>735.0</v>
+        <v>742.0</v>
       </c>
       <c r="C25" t="s">
         <v>109</v>
@@ -2900,7 +2900,7 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>2042.0</v>
+        <v>2061.0</v>
       </c>
       <c r="C26" t="s">
         <v>110</v>
@@ -2980,7 +2980,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>2646.0</v>
+        <v>2670.0</v>
       </c>
       <c r="C27" t="s">
         <v>111</v>
@@ -3060,7 +3060,7 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>475.0</v>
+        <v>480.0</v>
       </c>
       <c r="C28" t="s">
         <v>112</v>
@@ -3140,7 +3140,7 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>946.0</v>
+        <v>953.0</v>
       </c>
       <c r="C29" t="s">
         <v>113</v>
@@ -3164,7 +3164,7 @@
         <v>249</v>
       </c>
       <c r="J29" t="n">
-        <v>16.5</v>
+        <v>17.1</v>
       </c>
       <c r="K29" t="n">
         <v>2.0</v>
@@ -3176,10 +3176,10 @@
         <v>0.0</v>
       </c>
       <c r="N29" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="O29" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="P29" t="n">
         <v>1.0</v>
@@ -3203,7 +3203,7 @@
         <v>0.0</v>
       </c>
       <c r="W29" t="n">
-        <v>78.0</v>
+        <v>81.0</v>
       </c>
       <c r="X29" t="n">
         <v>14.0</v>
@@ -3220,7 +3220,7 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>1084.0</v>
+        <v>1092.0</v>
       </c>
       <c r="C30" t="s">
         <v>114</v>
@@ -3244,7 +3244,7 @@
         <v>250</v>
       </c>
       <c r="J30" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="K30" t="n">
         <v>2.0</v>
@@ -3256,7 +3256,7 @@
         <v>0.0</v>
       </c>
       <c r="N30" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="O30" t="n">
         <v>15.0</v>
@@ -3300,7 +3300,7 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>1227.0</v>
+        <v>1236.0</v>
       </c>
       <c r="C31" t="s">
         <v>115</v>
@@ -3324,7 +3324,7 @@
         <v>248</v>
       </c>
       <c r="J31" t="n">
-        <v>8.8</v>
+        <v>9.0</v>
       </c>
       <c r="K31" t="n">
         <v>2.0</v>
@@ -3369,10 +3369,10 @@
         <v>8.0</v>
       </c>
       <c r="Y31" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="Z31" t="n">
-        <v>26.7</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="32">
@@ -3380,7 +3380,7 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>451.0</v>
+        <v>455.0</v>
       </c>
       <c r="C32" t="s">
         <v>116</v>
@@ -3460,7 +3460,7 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>452.0</v>
+        <v>456.0</v>
       </c>
       <c r="C33" t="s">
         <v>117</v>
@@ -3484,7 +3484,7 @@
         <v>252</v>
       </c>
       <c r="J33" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="K33" t="n">
         <v>1.0</v>
@@ -3523,16 +3523,16 @@
         <v>0.0</v>
       </c>
       <c r="W33" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="X33" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y33" t="n">
         <v>10.0</v>
       </c>
       <c r="Z33" t="n">
-        <v>23.1</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="34">
@@ -3540,7 +3540,7 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>550.0</v>
+        <v>555.0</v>
       </c>
       <c r="C34" t="s">
         <v>118</v>
@@ -3561,10 +3561,10 @@
         <v>209</v>
       </c>
       <c r="I34" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J34" t="n">
-        <v>27.1</v>
+        <v>28.0</v>
       </c>
       <c r="K34" t="n">
         <v>1.0</v>
@@ -3576,7 +3576,7 @@
         <v>0.0</v>
       </c>
       <c r="N34" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="O34" t="n">
         <v>38.0</v>
@@ -3591,7 +3591,7 @@
         <v>14.0</v>
       </c>
       <c r="S34" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="T34" t="n">
         <v>0.0</v>
@@ -3603,16 +3603,16 @@
         <v>0.0</v>
       </c>
       <c r="W34" t="n">
-        <v>80.0</v>
+        <v>81.0</v>
       </c>
       <c r="X34" t="n">
         <v>8.0</v>
       </c>
       <c r="Y34" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="Z34" t="n">
-        <v>26.7</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="35">
@@ -3620,7 +3620,7 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>180.0</v>
+        <v>183.0</v>
       </c>
       <c r="C35" t="s">
         <v>119</v>
@@ -3700,7 +3700,7 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>356.0</v>
+        <v>359.0</v>
       </c>
       <c r="C36" t="s">
         <v>120</v>
@@ -3780,7 +3780,7 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>380.0</v>
+        <v>383.0</v>
       </c>
       <c r="C37" t="s">
         <v>121</v>
@@ -3804,7 +3804,7 @@
         <v>253</v>
       </c>
       <c r="J37" t="n">
-        <v>22.8</v>
+        <v>23.8</v>
       </c>
       <c r="K37" t="n">
         <v>1.0</v>
@@ -3825,10 +3825,10 @@
         <v>5.0</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="S37" t="n">
         <v>12.0</v>
@@ -3843,7 +3843,7 @@
         <v>0.0</v>
       </c>
       <c r="W37" t="n">
-        <v>98.0</v>
+        <v>102.0</v>
       </c>
       <c r="X37" t="n">
         <v>19.0</v>
@@ -3860,7 +3860,7 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>496.0</v>
+        <v>501.0</v>
       </c>
       <c r="C38" t="s">
         <v>122</v>
@@ -3881,10 +3881,10 @@
         <v>213</v>
       </c>
       <c r="I38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J38" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="K38" t="n">
         <v>1.0</v>
@@ -3940,7 +3940,7 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>937.0</v>
+        <v>944.0</v>
       </c>
       <c r="C39" t="s">
         <v>123</v>
@@ -4020,7 +4020,7 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>952.0</v>
+        <v>959.0</v>
       </c>
       <c r="C40" t="s">
         <v>124</v>
@@ -4100,7 +4100,7 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1157.0</v>
+        <v>1165.0</v>
       </c>
       <c r="C41" t="s">
         <v>125</v>
@@ -4124,7 +4124,7 @@
         <v>252</v>
       </c>
       <c r="J41" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K41" t="n">
         <v>1.0</v>
@@ -4180,7 +4180,7 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1455.0</v>
+        <v>1467.0</v>
       </c>
       <c r="C42" t="s">
         <v>126</v>
@@ -4204,7 +4204,7 @@
         <v>247</v>
       </c>
       <c r="J42" t="n">
-        <v>14.4</v>
+        <v>15.1</v>
       </c>
       <c r="K42" t="n">
         <v>1.0</v>
@@ -4225,7 +4225,7 @@
         <v>2.0</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="R42" t="n">
         <v>18.0</v>
@@ -4243,7 +4243,7 @@
         <v>0.0</v>
       </c>
       <c r="W42" t="n">
-        <v>70.0</v>
+        <v>74.0</v>
       </c>
       <c r="X42" t="n">
         <v>13.0</v>
@@ -4260,7 +4260,7 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>1511.0</v>
+        <v>1523.0</v>
       </c>
       <c r="C43" t="s">
         <v>127</v>
@@ -4340,7 +4340,7 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1579.0</v>
+        <v>1593.0</v>
       </c>
       <c r="C44" t="s">
         <v>128</v>
@@ -4420,7 +4420,7 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1759.0</v>
+        <v>1774.0</v>
       </c>
       <c r="C45" t="s">
         <v>129</v>
@@ -4444,7 +4444,7 @@
         <v>237</v>
       </c>
       <c r="J45" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="K45" t="n">
         <v>1.0</v>
@@ -4500,7 +4500,7 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>300.0</v>
+        <v>303.0</v>
       </c>
       <c r="C46" t="s">
         <v>130</v>
@@ -4580,7 +4580,7 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>447.0</v>
+        <v>451.0</v>
       </c>
       <c r="C47" t="s">
         <v>131</v>
@@ -4660,7 +4660,7 @@
         <v>71</v>
       </c>
       <c r="B48" t="n">
-        <v>672.0</v>
+        <v>679.0</v>
       </c>
       <c r="C48" t="s">
         <v>132</v>
@@ -4684,7 +4684,7 @@
         <v>247</v>
       </c>
       <c r="J48" t="n">
-        <v>30.9</v>
+        <v>31.9</v>
       </c>
       <c r="K48" t="n">
         <v>0.0</v>
@@ -4699,7 +4699,7 @@
         <v>0.0</v>
       </c>
       <c r="O48" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="P48" t="n">
         <v>0.0</v>
@@ -4723,16 +4723,16 @@
         <v>0.0</v>
       </c>
       <c r="W48" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="X48" t="n">
         <v>6.0</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z48" t="n">
-        <v>100.0</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="49">
@@ -4740,7 +4740,7 @@
         <v>72</v>
       </c>
       <c r="B49" t="n">
-        <v>979.0</v>
+        <v>986.0</v>
       </c>
       <c r="C49" t="s">
         <v>133</v>
@@ -4820,7 +4820,7 @@
         <v>73</v>
       </c>
       <c r="B50" t="n">
-        <v>1551.0</v>
+        <v>1564.0</v>
       </c>
       <c r="C50" t="s">
         <v>134</v>
@@ -4900,7 +4900,7 @@
         <v>74</v>
       </c>
       <c r="B51" t="n">
-        <v>1587.0</v>
+        <v>1601.0</v>
       </c>
       <c r="C51" t="s">
         <v>135</v>
@@ -4980,7 +4980,7 @@
         <v>75</v>
       </c>
       <c r="B52" t="n">
-        <v>2426.0</v>
+        <v>2449.0</v>
       </c>
       <c r="C52" t="s">
         <v>136</v>
@@ -5060,7 +5060,7 @@
         <v>76</v>
       </c>
       <c r="B53" t="n">
-        <v>2769.0</v>
+        <v>2794.0</v>
       </c>
       <c r="C53" t="s">
         <v>137</v>
@@ -5081,10 +5081,10 @@
         <v>228</v>
       </c>
       <c r="I53" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J53" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="K53" t="n">
         <v>0.0</v>
@@ -5096,22 +5096,22 @@
         <v>0.0</v>
       </c>
       <c r="N53" t="n">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="O53" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="P53" t="n">
         <v>0.0</v>
       </c>
       <c r="Q53" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="R53" t="n">
         <v>3.0</v>
       </c>
       <c r="S53" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="T53" t="n">
         <v>0.0</v>
@@ -5123,16 +5123,16 @@
         <v>0.0</v>
       </c>
       <c r="W53" t="n">
-        <v>33.0</v>
+        <v>37.0</v>
       </c>
       <c r="X53" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y53" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="Z53" t="n">
-        <v>10.0</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="54">
@@ -5140,7 +5140,7 @@
         <v>77</v>
       </c>
       <c r="B54" t="n">
-        <v>339.0</v>
+        <v>342.0</v>
       </c>
       <c r="C54" t="s">
         <v>138</v>
@@ -5164,7 +5164,7 @@
         <v>249</v>
       </c>
       <c r="J54" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="K54" t="n">
         <v>0.0</v>
@@ -5188,7 +5188,7 @@
         <v>0.0</v>
       </c>
       <c r="R54" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="S54" t="n">
         <v>3.0</v>
@@ -5203,16 +5203,16 @@
         <v>0.0</v>
       </c>
       <c r="W54" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="X54" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="Y54" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z54" t="n">
-        <v>40.0</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="55">
@@ -5220,7 +5220,7 @@
         <v>78</v>
       </c>
       <c r="B55" t="n">
-        <v>346.0</v>
+        <v>349.0</v>
       </c>
       <c r="C55" t="s">
         <v>139</v>
@@ -5300,7 +5300,7 @@
         <v>79</v>
       </c>
       <c r="B56" t="n">
-        <v>444.0</v>
+        <v>448.0</v>
       </c>
       <c r="C56" t="s">
         <v>140</v>
@@ -5380,7 +5380,7 @@
         <v>80</v>
       </c>
       <c r="B57" t="n">
-        <v>512.0</v>
+        <v>517.0</v>
       </c>
       <c r="C57" t="s">
         <v>141</v>
@@ -5404,7 +5404,7 @@
         <v>250</v>
       </c>
       <c r="J57" t="n">
-        <v>20.7</v>
+        <v>21.6</v>
       </c>
       <c r="K57" t="n">
         <v>0.0</v>
@@ -5419,7 +5419,7 @@
         <v>23.0</v>
       </c>
       <c r="O57" t="n">
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="P57" t="n">
         <v>16.0</v>
@@ -5428,7 +5428,7 @@
         <v>3.0</v>
       </c>
       <c r="R57" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="S57" t="n">
         <v>6.0</v>
@@ -5443,16 +5443,16 @@
         <v>0.0</v>
       </c>
       <c r="W57" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="X57" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="Y57" t="n">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="Z57" t="n">
-        <v>34.0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="58">
@@ -5460,7 +5460,7 @@
         <v>81</v>
       </c>
       <c r="B58" t="n">
-        <v>607.0</v>
+        <v>612.0</v>
       </c>
       <c r="C58" t="s">
         <v>142</v>
@@ -5540,7 +5540,7 @@
         <v>82</v>
       </c>
       <c r="B59" t="n">
-        <v>1380.0</v>
+        <v>1392.0</v>
       </c>
       <c r="C59" t="s">
         <v>143</v>
@@ -5561,7 +5561,7 @@
         <v>233</v>
       </c>
       <c r="I59" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J59" t="n">
         <v>0.7</v>
@@ -5620,7 +5620,7 @@
         <v>83</v>
       </c>
       <c r="B60" t="n">
-        <v>1508.0</v>
+        <v>1520.0</v>
       </c>
       <c r="C60" t="s">
         <v>144</v>
@@ -5700,7 +5700,7 @@
         <v>84</v>
       </c>
       <c r="B61" t="n">
-        <v>2487.0</v>
+        <v>2511.0</v>
       </c>
       <c r="C61" t="s">
         <v>145</v>
@@ -5780,7 +5780,7 @@
         <v>85</v>
       </c>
       <c r="B62" t="n">
-        <v>2588.0</v>
+        <v>2612.0</v>
       </c>
       <c r="C62" t="s">
         <v>146</v>
@@ -5975,7 +5975,7 @@
         <v>44</v>
       </c>
       <c r="B2" t="n">
-        <v>2432.0</v>
+        <v>2455.0</v>
       </c>
       <c r="C2" t="s">
         <v>105</v>
@@ -5996,19 +5996,19 @@
         <v>196</v>
       </c>
       <c r="I2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J2" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="K2" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="L2" t="e">
         <v>#N/A</v>
       </c>
       <c r="M2" t="n">
-        <v>31.8</v>
+        <v>32.8</v>
       </c>
       <c r="N2" t="n">
         <v>11.0</v>
@@ -6035,7 +6035,7 @@
         <v>0.0</v>
       </c>
       <c r="V2" t="n">
-        <v>10.0</v>
+        <v>10.1</v>
       </c>
       <c r="W2" t="n">
         <v>5.3</v>
@@ -6044,31 +6044,31 @@
         <v>6.2</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>104.0</v>
+        <v>108.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.0</v>
+        <v>191.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.0</v>
+        <v>205.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="AD2" t="n">
         <v>0.09</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="AH2" t="n">
         <v>0.31</v>
@@ -6079,7 +6079,7 @@
         <v>57</v>
       </c>
       <c r="B3" t="n">
-        <v>550.0</v>
+        <v>555.0</v>
       </c>
       <c r="C3" t="s">
         <v>118</v>
@@ -6100,19 +6100,19 @@
         <v>209</v>
       </c>
       <c r="I3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J3" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="K3" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="L3" t="e">
         <v>#N/A</v>
       </c>
       <c r="M3" t="n">
-        <v>27.1</v>
+        <v>28.0</v>
       </c>
       <c r="N3" t="n">
         <v>8.0</v>
@@ -6139,43 +6139,43 @@
         <v>0.0</v>
       </c>
       <c r="V3" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="W3" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="X3" t="n">
         <v>4.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.3</v>
+        <v>9.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.0</v>
+        <v>115.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>173.0</v>
+        <v>179.0</v>
       </c>
       <c r="AC3" t="n">
         <v>0.29</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="AF3" t="n">
         <v>0.29</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
@@ -6183,7 +6183,7 @@
         <v>37</v>
       </c>
       <c r="B4" t="n">
-        <v>2061.0</v>
+        <v>2082.0</v>
       </c>
       <c r="C4" t="s">
         <v>98</v>
@@ -6207,16 +6207,16 @@
         <v>247</v>
       </c>
       <c r="J4" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="L4" t="e">
         <v>#N/A</v>
       </c>
       <c r="M4" t="n">
-        <v>32.8</v>
+        <v>33.8</v>
       </c>
       <c r="N4" t="n">
         <v>6.0</v>
@@ -6243,25 +6243,25 @@
         <v>1.0</v>
       </c>
       <c r="V4" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="W4" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="X4" t="n">
         <v>1.1</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>171.0</v>
+        <v>175.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="AC4" t="n">
         <v>0.18</v>
@@ -6279,7 +6279,7 @@
         <v>0.15</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5">
@@ -6287,7 +6287,7 @@
         <v>80</v>
       </c>
       <c r="B5" t="n">
-        <v>512.0</v>
+        <v>517.0</v>
       </c>
       <c r="C5" t="s">
         <v>141</v>
@@ -6311,16 +6311,16 @@
         <v>250</v>
       </c>
       <c r="J5" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="K5" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="L5" t="e">
         <v>#N/A</v>
       </c>
       <c r="M5" t="n">
-        <v>20.7</v>
+        <v>21.6</v>
       </c>
       <c r="N5" t="n">
         <v>6.0</v>
@@ -6347,43 +6347,43 @@
         <v>0.0</v>
       </c>
       <c r="V5" t="n">
-        <v>8.0</v>
+        <v>8.3</v>
       </c>
       <c r="W5" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>116.0</v>
+        <v>124.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AD5" t="n">
         <v>0.05</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="6">
@@ -6391,7 +6391,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="n">
-        <v>1649.0</v>
+        <v>1665.0</v>
       </c>
       <c r="C6" t="s">
         <v>93</v>
@@ -6415,16 +6415,16 @@
         <v>243</v>
       </c>
       <c r="J6" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="K6" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="L6" t="e">
         <v>#N/A</v>
       </c>
       <c r="M6" t="n">
-        <v>24.1</v>
+        <v>24.6</v>
       </c>
       <c r="N6" t="n">
         <v>5.0</v>
@@ -6466,25 +6466,25 @@
         <v>18.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>163.0</v>
+        <v>167.0</v>
       </c>
       <c r="AB6" t="n">
         <v>53.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AD6" t="n">
         <v>0.0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AH6" t="n">
         <v>0.09</v>
@@ -6495,7 +6495,7 @@
         <v>39</v>
       </c>
       <c r="B7" t="n">
-        <v>549.0</v>
+        <v>554.0</v>
       </c>
       <c r="C7" t="s">
         <v>100</v>
@@ -6599,7 +6599,7 @@
         <v>73</v>
       </c>
       <c r="B8" t="n">
-        <v>1551.0</v>
+        <v>1564.0</v>
       </c>
       <c r="C8" t="s">
         <v>134</v>
@@ -6703,7 +6703,7 @@
         <v>41</v>
       </c>
       <c r="B9" t="n">
-        <v>1776.0</v>
+        <v>1793.0</v>
       </c>
       <c r="C9" t="s">
         <v>102</v>
@@ -6727,25 +6727,25 @@
         <v>250</v>
       </c>
       <c r="J9" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="K9" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="L9" t="e">
         <v>#N/A</v>
       </c>
       <c r="M9" t="n">
-        <v>20.3</v>
+        <v>21.0</v>
       </c>
       <c r="N9" t="n">
         <v>4.0</v>
       </c>
       <c r="O9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="P9" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q9" t="n">
         <v>4.0</v>
@@ -6769,34 +6769,34 @@
         <v>3.6</v>
       </c>
       <c r="X9" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="Z9" t="n">
-        <v>102.0</v>
+        <v>104.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>128.0</v>
+        <v>131.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AH9" t="n">
         <v>0.17</v>
@@ -6807,7 +6807,7 @@
         <v>60</v>
       </c>
       <c r="B10" t="n">
-        <v>380.0</v>
+        <v>383.0</v>
       </c>
       <c r="C10" t="s">
         <v>121</v>
@@ -6831,16 +6831,16 @@
         <v>253</v>
       </c>
       <c r="J10" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="K10" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="L10" t="e">
         <v>#N/A</v>
       </c>
       <c r="M10" t="n">
-        <v>22.8</v>
+        <v>23.8</v>
       </c>
       <c r="N10" t="n">
         <v>4.0</v>
@@ -6867,40 +6867,40 @@
         <v>0.0</v>
       </c>
       <c r="V10" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="W10" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="X10" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>88.0</v>
+        <v>91.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="AH10" t="n">
         <v>0.09</v>
@@ -6911,7 +6911,7 @@
         <v>53</v>
       </c>
       <c r="B11" t="n">
-        <v>1084.0</v>
+        <v>1092.0</v>
       </c>
       <c r="C11" t="s">
         <v>114</v>
@@ -6935,16 +6935,16 @@
         <v>250</v>
       </c>
       <c r="J11" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="K11" t="n">
         <v>11.0</v>
       </c>
       <c r="L11" t="n">
-        <v>844.0</v>
+        <v>864.0</v>
       </c>
       <c r="M11" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="N11" t="n">
         <v>3.0</v>
@@ -6977,34 +6977,34 @@
         <v>1.3</v>
       </c>
       <c r="X11" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.9</v>
+        <v>2.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="AB11" t="n">
         <v>45.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="AD11" t="n">
         <v>0.21</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="AF11" t="n">
         <v>0.21</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="AH11" t="n">
         <v>0.22</v>
@@ -7015,7 +7015,7 @@
         <v>54</v>
       </c>
       <c r="B12" t="n">
-        <v>1227.0</v>
+        <v>1236.0</v>
       </c>
       <c r="C12" t="s">
         <v>115</v>
@@ -7039,16 +7039,16 @@
         <v>248</v>
       </c>
       <c r="J12" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="K12" t="n">
         <v>8.0</v>
       </c>
       <c r="L12" t="n">
-        <v>792.0</v>
+        <v>812.0</v>
       </c>
       <c r="M12" t="n">
-        <v>8.8</v>
+        <v>9.0</v>
       </c>
       <c r="N12" t="n">
         <v>3.0</v>
@@ -7075,7 +7075,7 @@
         <v>0.0</v>
       </c>
       <c r="V12" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="W12" t="n">
         <v>3.8</v>
@@ -7084,7 +7084,7 @@
         <v>0.3</v>
       </c>
       <c r="Y12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z12" t="n">
         <v>6.0</v>
@@ -7093,25 +7093,25 @@
         <v>11.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="AD12" t="n">
         <v>0.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13">
@@ -7119,7 +7119,7 @@
         <v>56</v>
       </c>
       <c r="B13" t="n">
-        <v>452.0</v>
+        <v>456.0</v>
       </c>
       <c r="C13" t="s">
         <v>117</v>
@@ -7143,7 +7143,7 @@
         <v>252</v>
       </c>
       <c r="J13" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="K13" t="n">
         <v>9.0</v>
@@ -7152,7 +7152,7 @@
         <v>#N/A</v>
       </c>
       <c r="M13" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="N13" t="n">
         <v>2.0</v>
@@ -7191,13 +7191,13 @@
         <v>3.9</v>
       </c>
       <c r="Z13" t="n">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>47.0</v>
+        <v>49.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="AC13" t="n">
         <v>0.17</v>
@@ -7223,7 +7223,7 @@
         <v>65</v>
       </c>
       <c r="B14" t="n">
-        <v>1455.0</v>
+        <v>1467.0</v>
       </c>
       <c r="C14" t="s">
         <v>126</v>
@@ -7247,16 +7247,16 @@
         <v>247</v>
       </c>
       <c r="J14" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="K14" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="L14" t="e">
         <v>#N/A</v>
       </c>
       <c r="M14" t="n">
-        <v>14.4</v>
+        <v>15.1</v>
       </c>
       <c r="N14" t="n">
         <v>2.0</v>
@@ -7289,37 +7289,37 @@
         <v>1.2</v>
       </c>
       <c r="X14" t="n">
-        <v>1.0</v>
+        <v>1.1</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.0</v>
+        <v>28.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>59.0</v>
+        <v>64.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>55.0</v>
+        <v>57.0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AD14" t="n">
         <v>0.07</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="15">
@@ -7327,7 +7327,7 @@
         <v>68</v>
       </c>
       <c r="B15" t="n">
-        <v>1759.0</v>
+        <v>1774.0</v>
       </c>
       <c r="C15" t="s">
         <v>129</v>
@@ -7351,7 +7351,7 @@
         <v>237</v>
       </c>
       <c r="J15" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="K15" t="n">
         <v>16.0</v>
@@ -7360,7 +7360,7 @@
         <v>#N/A</v>
       </c>
       <c r="M15" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="N15" t="n">
         <v>2.0</v>
@@ -7431,7 +7431,7 @@
         <v>43</v>
       </c>
       <c r="B16" t="n">
-        <v>2166.0</v>
+        <v>2187.0</v>
       </c>
       <c r="C16" t="s">
         <v>104</v>
@@ -7455,16 +7455,16 @@
         <v>248</v>
       </c>
       <c r="J16" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="K16" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>978.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="L16" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M16" t="n">
-        <v>10.9</v>
+        <v>11.6</v>
       </c>
       <c r="N16" t="n">
         <v>2.0</v>
@@ -7491,10 +7491,10 @@
         <v>0.0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="W16" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="X16" t="n">
         <v>1.9</v>
@@ -7506,25 +7506,25 @@
         <v>10.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="AB16" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="AH16" t="n">
         <v>0.1</v>
@@ -7532,13 +7532,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="n">
-        <v>335.0</v>
+        <v>338.0</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
         <v>149</v>
@@ -7553,22 +7553,22 @@
         <v>176</v>
       </c>
       <c r="H17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J17" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="K17" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="L17" t="e">
         <v>#N/A</v>
       </c>
       <c r="M17" t="n">
-        <v>14.4</v>
+        <v>15.4</v>
       </c>
       <c r="N17" t="n">
         <v>1.0</v>
@@ -7589,7 +7589,7 @@
         <v>0.0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="U17" t="n">
         <v>0.0</v>
@@ -7601,10 +7601,10 @@
         <v>0.9</v>
       </c>
       <c r="X17" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="Z17" t="n">
         <v>29.0</v>
@@ -7616,19 +7616,19 @@
         <v>10.0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AH17" t="n">
         <v>0.06</v>
@@ -7639,7 +7639,7 @@
         <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>422.0</v>
+        <v>426.0</v>
       </c>
       <c r="C18" t="s">
         <v>91</v>
@@ -7663,7 +7663,7 @@
         <v>241</v>
       </c>
       <c r="J18" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="K18" t="n">
         <v>23.0</v>
@@ -7672,7 +7672,7 @@
         <v>#N/A</v>
       </c>
       <c r="M18" t="n">
-        <v>23.3</v>
+        <v>23.8</v>
       </c>
       <c r="N18" t="n">
         <v>1.0</v>
@@ -7714,7 +7714,7 @@
         <v>10.0</v>
       </c>
       <c r="AA18" t="n">
-        <v>54.0</v>
+        <v>56.0</v>
       </c>
       <c r="AB18" t="n">
         <v>9.0</v>
@@ -7726,13 +7726,13 @@
         <v>0.04</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AF18" t="n">
         <v>0.04</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AH18" t="n">
         <v>0.02</v>
@@ -7743,7 +7743,7 @@
         <v>55</v>
       </c>
       <c r="B19" t="n">
-        <v>451.0</v>
+        <v>455.0</v>
       </c>
       <c r="C19" t="s">
         <v>116</v>
@@ -7847,7 +7847,7 @@
         <v>36</v>
       </c>
       <c r="B20" t="n">
-        <v>908.0</v>
+        <v>915.0</v>
       </c>
       <c r="C20" t="s">
         <v>97</v>
@@ -7951,7 +7951,7 @@
         <v>74</v>
       </c>
       <c r="B21" t="n">
-        <v>1587.0</v>
+        <v>1601.0</v>
       </c>
       <c r="C21" t="s">
         <v>135</v>
@@ -8055,7 +8055,7 @@
         <v>50</v>
       </c>
       <c r="B22" t="n">
-        <v>2646.0</v>
+        <v>2670.0</v>
       </c>
       <c r="C22" t="s">
         <v>111</v>
@@ -8159,7 +8159,7 @@
         <v>58</v>
       </c>
       <c r="B23" t="n">
-        <v>180.0</v>
+        <v>183.0</v>
       </c>
       <c r="C23" t="s">
         <v>119</v>
@@ -8263,7 +8263,7 @@
         <v>81</v>
       </c>
       <c r="B24" t="n">
-        <v>607.0</v>
+        <v>612.0</v>
       </c>
       <c r="C24" t="s">
         <v>142</v>
@@ -8367,7 +8367,7 @@
         <v>64</v>
       </c>
       <c r="B25" t="n">
-        <v>1157.0</v>
+        <v>1165.0</v>
       </c>
       <c r="C25" t="s">
         <v>125</v>
@@ -8391,16 +8391,16 @@
         <v>252</v>
       </c>
       <c r="J25" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="K25" t="n">
         <v>5.0</v>
       </c>
       <c r="L25" t="n">
-        <v>465.0</v>
+        <v>474.0</v>
       </c>
       <c r="M25" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="N25" t="n">
         <v>1.0</v>
@@ -8445,7 +8445,7 @@
         <v>22.0</v>
       </c>
       <c r="AB25" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="AC25" t="n">
         <v>0.19</v>
@@ -8454,13 +8454,13 @@
         <v>0.19</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="AF25" t="n">
         <v>0.19</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="AH25" t="n">
         <v>0.15</v>
@@ -8471,7 +8471,7 @@
         <v>33</v>
       </c>
       <c r="B26" t="n">
-        <v>2220.0</v>
+        <v>2242.0</v>
       </c>
       <c r="C26" t="s">
         <v>94</v>
@@ -8575,7 +8575,7 @@
         <v>46</v>
       </c>
       <c r="B27" t="n">
-        <v>2783.0</v>
+        <v>2808.0</v>
       </c>
       <c r="C27" t="s">
         <v>107</v>
@@ -8596,19 +8596,19 @@
         <v>198</v>
       </c>
       <c r="I27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J27" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K27" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>989.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="L27" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M27" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="N27" t="n">
         <v>1.0</v>
@@ -8635,40 +8635,40 @@
         <v>0.0</v>
       </c>
       <c r="V27" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="W27" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="X27" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.9</v>
+        <v>3.0</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
       <c r="AA27" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="AB27" t="n">
-        <v>57.0</v>
+        <v>64.0</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AH27" t="n">
         <v>0.02</v>
@@ -8679,7 +8679,7 @@
         <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="C28" t="s">
         <v>95</v>
@@ -8703,16 +8703,16 @@
         <v>238</v>
       </c>
       <c r="J28" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="K28" t="n">
         <v>8.0</v>
       </c>
       <c r="L28" t="n">
-        <v>678.0</v>
+        <v>705.0</v>
       </c>
       <c r="M28" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="N28" t="n">
         <v>0.0</v>
@@ -8757,7 +8757,7 @@
         <v>10.0</v>
       </c>
       <c r="AB28" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="AC28" t="n">
         <v>0.0</v>
@@ -8783,7 +8783,7 @@
         <v>69</v>
       </c>
       <c r="B29" t="n">
-        <v>300.0</v>
+        <v>303.0</v>
       </c>
       <c r="C29" t="s">
         <v>130</v>
@@ -8884,13 +8884,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>309.0</v>
+        <v>312.0</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
         <v>148</v>
@@ -8905,22 +8905,22 @@
         <v>176</v>
       </c>
       <c r="H30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J30" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="K30" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="L30" t="e">
         <v>#N/A</v>
       </c>
       <c r="M30" t="n">
-        <v>20.1</v>
+        <v>20.8</v>
       </c>
       <c r="N30" t="n">
         <v>0.0</v>
@@ -8959,13 +8959,13 @@
         <v>3.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="AA30" t="n">
-        <v>60.0</v>
+        <v>62.0</v>
       </c>
       <c r="AB30" t="n">
-        <v>112.0</v>
+        <v>113.0</v>
       </c>
       <c r="AC30" t="n">
         <v>0.0</v>
@@ -8991,7 +8991,7 @@
         <v>70</v>
       </c>
       <c r="B31" t="n">
-        <v>447.0</v>
+        <v>451.0</v>
       </c>
       <c r="C31" t="s">
         <v>131</v>
@@ -9095,7 +9095,7 @@
         <v>47</v>
       </c>
       <c r="B32" t="n">
-        <v>536.0</v>
+        <v>541.0</v>
       </c>
       <c r="C32" t="s">
         <v>108</v>
@@ -9199,7 +9199,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="n">
-        <v>610.0</v>
+        <v>616.0</v>
       </c>
       <c r="C33" t="s">
         <v>96</v>
@@ -9223,7 +9223,7 @@
         <v>245</v>
       </c>
       <c r="J33" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="K33" t="n">
         <v>15.0</v>
@@ -9232,7 +9232,7 @@
         <v>#N/A</v>
       </c>
       <c r="M33" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="N33" t="n">
         <v>0.0</v>
@@ -9274,10 +9274,10 @@
         <v>9.0</v>
       </c>
       <c r="AA33" t="n">
-        <v>53.0</v>
+        <v>55.0</v>
       </c>
       <c r="AB33" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="AC33" t="n">
         <v>0.0</v>
@@ -9303,7 +9303,7 @@
         <v>71</v>
       </c>
       <c r="B34" t="n">
-        <v>672.0</v>
+        <v>679.0</v>
       </c>
       <c r="C34" t="s">
         <v>132</v>
@@ -9327,16 +9327,16 @@
         <v>247</v>
       </c>
       <c r="J34" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="K34" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="L34" t="e">
         <v>#N/A</v>
       </c>
       <c r="M34" t="n">
-        <v>30.9</v>
+        <v>31.9</v>
       </c>
       <c r="N34" t="n">
         <v>0.0</v>
@@ -9407,7 +9407,7 @@
         <v>48</v>
       </c>
       <c r="B35" t="n">
-        <v>735.0</v>
+        <v>742.0</v>
       </c>
       <c r="C35" t="s">
         <v>109</v>
@@ -9511,7 +9511,7 @@
         <v>72</v>
       </c>
       <c r="B36" t="n">
-        <v>979.0</v>
+        <v>986.0</v>
       </c>
       <c r="C36" t="s">
         <v>133</v>
@@ -9615,7 +9615,7 @@
         <v>26</v>
       </c>
       <c r="B37" t="n">
-        <v>1186.0</v>
+        <v>1194.0</v>
       </c>
       <c r="C37" t="s">
         <v>87</v>
@@ -9639,16 +9639,16 @@
         <v>238</v>
       </c>
       <c r="J37" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="K37" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="L37" t="e">
         <v>#N/A</v>
       </c>
       <c r="M37" t="n">
-        <v>15.8</v>
+        <v>16.8</v>
       </c>
       <c r="N37" t="n">
         <v>0.0</v>
@@ -9690,10 +9690,10 @@
         <v>13.0</v>
       </c>
       <c r="AA37" t="n">
-        <v>47.0</v>
+        <v>49.0</v>
       </c>
       <c r="AB37" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="AC37" t="n">
         <v>0.0</v>
@@ -9719,7 +9719,7 @@
         <v>40</v>
       </c>
       <c r="B38" t="n">
-        <v>1383.0</v>
+        <v>1395.0</v>
       </c>
       <c r="C38" t="s">
         <v>101</v>
@@ -9743,16 +9743,16 @@
         <v>249</v>
       </c>
       <c r="J38" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="K38" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="L38" t="e">
         <v>#N/A</v>
       </c>
       <c r="M38" t="n">
-        <v>17.8</v>
+        <v>18.3</v>
       </c>
       <c r="N38" t="n">
         <v>0.0</v>
@@ -9788,7 +9788,7 @@
         <v>1.4</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Z38" t="n">
         <v>59.0</v>
@@ -9797,22 +9797,22 @@
         <v>63.0</v>
       </c>
       <c r="AB38" t="n">
-        <v>92.0</v>
+        <v>93.0</v>
       </c>
       <c r="AC38" t="n">
         <v>0.0</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AF38" t="n">
         <v>0.0</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AH38" t="n">
         <v>0.06</v>
@@ -9823,7 +9823,7 @@
         <v>31</v>
       </c>
       <c r="B39" t="n">
-        <v>1584.0</v>
+        <v>1598.0</v>
       </c>
       <c r="C39" t="s">
         <v>92</v>
@@ -9847,16 +9847,16 @@
         <v>242</v>
       </c>
       <c r="J39" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="K39" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="L39" t="e">
         <v>#N/A</v>
       </c>
       <c r="M39" t="n">
-        <v>26.3</v>
+        <v>27.1</v>
       </c>
       <c r="N39" t="n">
         <v>0.0</v>
@@ -9927,7 +9927,7 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>2042.0</v>
+        <v>2061.0</v>
       </c>
       <c r="C40" t="s">
         <v>110</v>
@@ -10031,7 +10031,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="n">
-        <v>2047.0</v>
+        <v>2066.0</v>
       </c>
       <c r="C41" t="s">
         <v>103</v>
@@ -10055,16 +10055,16 @@
         <v>250</v>
       </c>
       <c r="J41" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="K41" t="n">
         <v>8.0</v>
       </c>
       <c r="L41" t="n">
-        <v>729.0</v>
+        <v>756.0</v>
       </c>
       <c r="M41" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="N41" t="n">
         <v>0.0</v>
@@ -10097,34 +10097,34 @@
         <v>0.2</v>
       </c>
       <c r="X41" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.8</v>
+        <v>1.0</v>
       </c>
       <c r="Z41" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="AA41" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="AB41" t="n">
-        <v>63.0</v>
+        <v>65.0</v>
       </c>
       <c r="AC41" t="n">
         <v>0.0</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AF41" t="n">
         <v>0.0</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AH41" t="n">
         <v>0.02</v>
@@ -10135,7 +10135,7 @@
         <v>75</v>
       </c>
       <c r="B42" t="n">
-        <v>2426.0</v>
+        <v>2449.0</v>
       </c>
       <c r="C42" t="s">
         <v>136</v>
@@ -10239,7 +10239,7 @@
         <v>76</v>
       </c>
       <c r="B43" t="n">
-        <v>2769.0</v>
+        <v>2794.0</v>
       </c>
       <c r="C43" t="s">
         <v>137</v>
@@ -10260,19 +10260,19 @@
         <v>228</v>
       </c>
       <c r="I43" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J43" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K43" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="L43" t="n">
-        <v>524.0</v>
+        <v>614.0</v>
       </c>
       <c r="M43" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="N43" t="n">
         <v>0.0</v>
@@ -10299,43 +10299,43 @@
         <v>0.0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="W43" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="X43" t="n">
         <v>0.8</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="Z43" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="AA43" t="n">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="AB43" t="n">
-        <v>35.0</v>
+        <v>40.0</v>
       </c>
       <c r="AC43" t="n">
         <v>0.0</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AF43" t="n">
         <v>0.0</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="44">
@@ -10343,7 +10343,7 @@
         <v>25</v>
       </c>
       <c r="B44" t="n">
-        <v>221.0</v>
+        <v>224.0</v>
       </c>
       <c r="C44" t="s">
         <v>86</v>
@@ -10447,7 +10447,7 @@
         <v>77</v>
       </c>
       <c r="B45" t="n">
-        <v>339.0</v>
+        <v>342.0</v>
       </c>
       <c r="C45" t="s">
         <v>138</v>
@@ -10471,58 +10471,58 @@
         <v>249</v>
       </c>
       <c r="J45" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>309.0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z45" t="n">
         <v>2.0</v>
       </c>
-      <c r="L45" t="n">
-        <v>219.0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>1.0</v>
-      </c>
       <c r="AA45" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="AB45" t="n">
         <v>1.0</v>
@@ -10551,7 +10551,7 @@
         <v>78</v>
       </c>
       <c r="B46" t="n">
-        <v>346.0</v>
+        <v>349.0</v>
       </c>
       <c r="C46" t="s">
         <v>139</v>
@@ -10655,7 +10655,7 @@
         <v>59</v>
       </c>
       <c r="B47" t="n">
-        <v>356.0</v>
+        <v>359.0</v>
       </c>
       <c r="C47" t="s">
         <v>120</v>
@@ -10759,7 +10759,7 @@
         <v>79</v>
       </c>
       <c r="B48" t="n">
-        <v>444.0</v>
+        <v>448.0</v>
       </c>
       <c r="C48" t="s">
         <v>140</v>
@@ -10863,7 +10863,7 @@
         <v>51</v>
       </c>
       <c r="B49" t="n">
-        <v>475.0</v>
+        <v>480.0</v>
       </c>
       <c r="C49" t="s">
         <v>112</v>
@@ -10967,7 +10967,7 @@
         <v>61</v>
       </c>
       <c r="B50" t="n">
-        <v>496.0</v>
+        <v>501.0</v>
       </c>
       <c r="C50" t="s">
         <v>122</v>
@@ -10988,19 +10988,19 @@
         <v>213</v>
       </c>
       <c r="I50" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J50" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="K50" t="n">
         <v>5.0</v>
       </c>
-      <c r="K50" t="n">
-        <v>4.0</v>
-      </c>
       <c r="L50" t="n">
-        <v>405.0</v>
+        <v>495.0</v>
       </c>
       <c r="M50" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N50" t="n">
         <v>0.0</v>
@@ -11071,7 +11071,7 @@
         <v>62</v>
       </c>
       <c r="B51" t="n">
-        <v>937.0</v>
+        <v>944.0</v>
       </c>
       <c r="C51" t="s">
         <v>123</v>
@@ -11175,7 +11175,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>946.0</v>
+        <v>953.0</v>
       </c>
       <c r="C52" t="s">
         <v>113</v>
@@ -11199,7 +11199,7 @@
         <v>249</v>
       </c>
       <c r="J52" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="K52" t="n">
         <v>16.0</v>
@@ -11208,7 +11208,7 @@
         <v>#N/A</v>
       </c>
       <c r="M52" t="n">
-        <v>16.5</v>
+        <v>17.1</v>
       </c>
       <c r="N52" t="n">
         <v>0.0</v>
@@ -11244,16 +11244,16 @@
         <v>2.4</v>
       </c>
       <c r="Y52" t="n">
-        <v>3.0</v>
+        <v>3.1</v>
       </c>
       <c r="Z52" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="AA52" t="n">
-        <v>55.0</v>
+        <v>59.0</v>
       </c>
       <c r="AB52" t="n">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
       <c r="AC52" t="n">
         <v>0.0</v>
@@ -11279,7 +11279,7 @@
         <v>63</v>
       </c>
       <c r="B53" t="n">
-        <v>952.0</v>
+        <v>959.0</v>
       </c>
       <c r="C53" t="s">
         <v>124</v>
@@ -11383,7 +11383,7 @@
         <v>82</v>
       </c>
       <c r="B54" t="n">
-        <v>1380.0</v>
+        <v>1392.0</v>
       </c>
       <c r="C54" t="s">
         <v>143</v>
@@ -11404,7 +11404,7 @@
         <v>233</v>
       </c>
       <c r="I54" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J54" t="n">
         <v>5.0</v>
@@ -11487,7 +11487,7 @@
         <v>83</v>
       </c>
       <c r="B55" t="n">
-        <v>1508.0</v>
+        <v>1520.0</v>
       </c>
       <c r="C55" t="s">
         <v>144</v>
@@ -11591,7 +11591,7 @@
         <v>66</v>
       </c>
       <c r="B56" t="n">
-        <v>1511.0</v>
+        <v>1523.0</v>
       </c>
       <c r="C56" t="s">
         <v>127</v>
@@ -11695,7 +11695,7 @@
         <v>67</v>
       </c>
       <c r="B57" t="n">
-        <v>1579.0</v>
+        <v>1593.0</v>
       </c>
       <c r="C57" t="s">
         <v>128</v>
@@ -11799,7 +11799,7 @@
         <v>27</v>
       </c>
       <c r="B58" t="n">
-        <v>1916.0</v>
+        <v>1934.0</v>
       </c>
       <c r="C58" t="s">
         <v>88</v>
@@ -11823,16 +11823,16 @@
         <v>237</v>
       </c>
       <c r="J58" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="K58" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="L58" t="e">
         <v>#N/A</v>
       </c>
       <c r="M58" t="n">
-        <v>29.5</v>
+        <v>30.4</v>
       </c>
       <c r="N58" t="n">
         <v>0.0</v>
@@ -11903,7 +11903,7 @@
         <v>38</v>
       </c>
       <c r="B59" t="n">
-        <v>1970.0</v>
+        <v>1989.0</v>
       </c>
       <c r="C59" t="s">
         <v>99</v>
@@ -12007,7 +12007,7 @@
         <v>84</v>
       </c>
       <c r="B60" t="n">
-        <v>2487.0</v>
+        <v>2511.0</v>
       </c>
       <c r="C60" t="s">
         <v>145</v>
@@ -12111,7 +12111,7 @@
         <v>85</v>
       </c>
       <c r="B61" t="n">
-        <v>2588.0</v>
+        <v>2612.0</v>
       </c>
       <c r="C61" t="s">
         <v>146</v>
@@ -12215,7 +12215,7 @@
         <v>45</v>
       </c>
       <c r="B62" t="n">
-        <v>2608.0</v>
+        <v>2632.0</v>
       </c>
       <c r="C62" t="s">
         <v>106</v>
@@ -12239,16 +12239,16 @@
         <v>250</v>
       </c>
       <c r="J62" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="K62" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="L62" t="n">
-        <v>908.0</v>
+        <v>998.0</v>
       </c>
       <c r="M62" t="n">
-        <v>10.1</v>
+        <v>11.1</v>
       </c>
       <c r="N62" t="n">
         <v>0.0</v>
@@ -12275,43 +12275,43 @@
         <v>0.0</v>
       </c>
       <c r="V62" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="W62" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="X62" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="Y62" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="Z62" t="n">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="AA62" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="AB62" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="AC62" t="n">
         <v>0.0</v>
       </c>
       <c r="AD62" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AE62" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AF62" t="n">
         <v>0.0</v>
       </c>
       <c r="AG62" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AH62" t="n">
-        <v>0.02</v>
+        <v>0.07</v>
       </c>
     </row>
   </sheetData>
